--- a/SDET/testData/testScriptData.XLSX
+++ b/SDET/testData/testScriptData.XLSX
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHEKHAR\git\sdet\SDET\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C78269-2682-4A2E-91E2-36F0FDA8EBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Org" sheetId="1" r:id="rId1"/>
+    <sheet name="Contact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+  <si>
+    <t>testID</t>
+  </si>
+  <si>
+    <t>testName</t>
+  </si>
+  <si>
+    <t>orgName</t>
+  </si>
+  <si>
+    <t>orgType</t>
+  </si>
+  <si>
+    <t>orgIndustry</t>
+  </si>
+  <si>
+    <t>tc_01</t>
+  </si>
+  <si>
+    <t>createOrganization</t>
+  </si>
+  <si>
+    <t>Skillrary</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>tc_02</t>
+  </si>
+  <si>
+    <t>createOrganizationWithType</t>
+  </si>
+  <si>
+    <t>contactFirstName</t>
+  </si>
+  <si>
+    <t>contactlastName</t>
+  </si>
+  <si>
+    <t>createContactWithOrganization</t>
+  </si>
+  <si>
+    <t>Shekhar</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +92,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +114,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +416,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5543B2FA-94BA-467C-AB20-33192642ABE8}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SDET/testData/testScriptData.XLSX
+++ b/SDET/testData/testScriptData.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHEKHAR\git\sdet\SDET\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C78269-2682-4A2E-91E2-36F0FDA8EBCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF63A0B-F89A-42B0-89DE-A9C920F493CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Org" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>testID</t>
   </si>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t>Anand</t>
+  </si>
+  <si>
+    <t>expPageTitle</t>
+  </si>
+  <si>
+    <t>expHomePageTitle</t>
+  </si>
+  <si>
+    <t>srchType</t>
+  </si>
+  <si>
+    <t>specific_contact_account_address</t>
+  </si>
+  <si>
+    <t>Administrator - Contacts</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>No Organization Found</t>
+  </si>
+  <si>
+    <t>no Organization Found Message</t>
   </si>
 </sst>
 </file>
@@ -106,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,14 +153,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,10 +530,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5543B2FA-94BA-467C-AB20-33192642ABE8}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,9 +545,13 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +573,20 @@
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -555,6 +607,18 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/SDET/testData/testScriptData.XLSX
+++ b/SDET/testData/testScriptData.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHEKHAR\git\sdet\SDET\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF63A0B-F89A-42B0-89DE-A9C920F493CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6A1DEC-0F0E-4483-9394-EBC73F9B8254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>testID</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>no Organization Found Message</t>
+  </si>
+  <si>
+    <t>No Contact Found !</t>
+  </si>
+  <si>
+    <t>no Contact Found Message</t>
   </si>
 </sst>
 </file>
@@ -530,10 +536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5543B2FA-94BA-467C-AB20-33192642ABE8}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +555,10 @@
     <col min="9" max="9" width="22.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,8 +592,11 @@
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -619,6 +629,9 @@
       </c>
       <c r="K2" t="s">
         <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
